--- a/REST/Flask_restful/Fake_data.xlsx
+++ b/REST/Flask_restful/Fake_data.xlsx
@@ -1660,7 +1660,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B1" sqref="B1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
